--- a/Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92BBD6F-C3A8-412E-9F6B-8B24C9836814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOKCY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4157000</v>
+        <v>4137200</v>
       </c>
       <c r="E8" s="3">
-        <v>3655300</v>
+        <v>3637900</v>
       </c>
       <c r="F8" s="3">
-        <v>3787700</v>
+        <v>3769600</v>
       </c>
       <c r="G8" s="3">
-        <v>4046700</v>
+        <v>4027400</v>
       </c>
       <c r="H8" s="3">
-        <v>3615500</v>
+        <v>3598200</v>
       </c>
       <c r="I8" s="3">
-        <v>3190100</v>
+        <v>3174900</v>
       </c>
       <c r="J8" s="3">
-        <v>2870600</v>
+        <v>2857000</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2008600</v>
+        <v>1999000</v>
       </c>
       <c r="E9" s="3">
-        <v>1626800</v>
+        <v>1619100</v>
       </c>
       <c r="F9" s="3">
-        <v>1804500</v>
+        <v>1795900</v>
       </c>
       <c r="G9" s="3">
-        <v>2086200</v>
+        <v>2076300</v>
       </c>
       <c r="H9" s="3">
-        <v>1884400</v>
+        <v>1875400</v>
       </c>
       <c r="I9" s="3">
-        <v>1706500</v>
+        <v>1698400</v>
       </c>
       <c r="J9" s="3">
-        <v>1427500</v>
+        <v>1420700</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2148400</v>
+        <v>2138200</v>
       </c>
       <c r="E10" s="3">
-        <v>2028500</v>
+        <v>2018800</v>
       </c>
       <c r="F10" s="3">
-        <v>1983200</v>
+        <v>1973700</v>
       </c>
       <c r="G10" s="3">
-        <v>1960500</v>
+        <v>1951100</v>
       </c>
       <c r="H10" s="3">
-        <v>1731100</v>
+        <v>1722800</v>
       </c>
       <c r="I10" s="3">
-        <v>1483600</v>
+        <v>1476500</v>
       </c>
       <c r="J10" s="3">
-        <v>1443100</v>
+        <v>1436300</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -820,14 +855,14 @@
         <v>5100</v>
       </c>
       <c r="I12" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,12 +889,12 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-32400</v>
+        <v>-35300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -874,41 +909,41 @@
         <v>4400</v>
       </c>
       <c r="I14" s="3">
-        <v>-85000</v>
+        <v>-84600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>304000</v>
+        <v>302500</v>
       </c>
       <c r="E15" s="3">
-        <v>284600</v>
+        <v>283200</v>
       </c>
       <c r="F15" s="3">
-        <v>265600</v>
+        <v>264400</v>
       </c>
       <c r="G15" s="3">
-        <v>249800</v>
+        <v>248600</v>
       </c>
       <c r="H15" s="3">
-        <v>211100</v>
+        <v>210100</v>
       </c>
       <c r="I15" s="3">
-        <v>187500</v>
+        <v>186600</v>
       </c>
       <c r="J15" s="3">
-        <v>167800</v>
+        <v>167000</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3099500</v>
+        <v>3084800</v>
       </c>
       <c r="E17" s="3">
-        <v>2741300</v>
+        <v>2728300</v>
       </c>
       <c r="F17" s="3">
-        <v>2880100</v>
+        <v>2866300</v>
       </c>
       <c r="G17" s="3">
-        <v>3064600</v>
+        <v>3049900</v>
       </c>
       <c r="H17" s="3">
-        <v>2634400</v>
+        <v>2621900</v>
       </c>
       <c r="I17" s="3">
-        <v>2282000</v>
+        <v>2271100</v>
       </c>
       <c r="J17" s="3">
-        <v>2144300</v>
+        <v>2134100</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1057500</v>
+        <v>1052400</v>
       </c>
       <c r="E18" s="3">
-        <v>914000</v>
+        <v>909600</v>
       </c>
       <c r="F18" s="3">
-        <v>907600</v>
+        <v>903300</v>
       </c>
       <c r="G18" s="3">
-        <v>982100</v>
+        <v>977500</v>
       </c>
       <c r="H18" s="3">
-        <v>981100</v>
+        <v>976400</v>
       </c>
       <c r="I18" s="3">
-        <v>908100</v>
+        <v>903800</v>
       </c>
       <c r="J18" s="3">
-        <v>726300</v>
+        <v>722900</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>523800</v>
+        <v>521300</v>
       </c>
       <c r="E20" s="3">
-        <v>500800</v>
+        <v>498400</v>
       </c>
       <c r="F20" s="3">
-        <v>504800</v>
+        <v>502400</v>
       </c>
       <c r="G20" s="3">
-        <v>411500</v>
+        <v>409500</v>
       </c>
       <c r="H20" s="3">
-        <v>342000</v>
+        <v>340400</v>
       </c>
       <c r="I20" s="3">
-        <v>467800</v>
+        <v>465600</v>
       </c>
       <c r="J20" s="3">
-        <v>402700</v>
+        <v>400800</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1885200</v>
+        <v>1876300</v>
       </c>
       <c r="E21" s="3">
-        <v>1699400</v>
+        <v>1691300</v>
       </c>
       <c r="F21" s="3">
-        <v>1678100</v>
+        <v>1670100</v>
       </c>
       <c r="G21" s="3">
-        <v>1643400</v>
+        <v>1635600</v>
       </c>
       <c r="H21" s="3">
-        <v>1534200</v>
+        <v>1526900</v>
       </c>
       <c r="I21" s="3">
-        <v>1563500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1296900</v>
+        <v>1556000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>160900</v>
+        <v>160100</v>
       </c>
       <c r="E22" s="3">
-        <v>154500</v>
+        <v>153800</v>
       </c>
       <c r="F22" s="3">
-        <v>144500</v>
+        <v>143800</v>
       </c>
       <c r="G22" s="3">
-        <v>129700</v>
+        <v>129000</v>
       </c>
       <c r="H22" s="3">
-        <v>118500</v>
+        <v>117900</v>
       </c>
       <c r="I22" s="3">
-        <v>110600</v>
+        <v>110000</v>
       </c>
       <c r="J22" s="3">
-        <v>96300</v>
+        <v>95800</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1420400</v>
+        <v>1413600</v>
       </c>
       <c r="E23" s="3">
-        <v>1260200</v>
+        <v>1254200</v>
       </c>
       <c r="F23" s="3">
-        <v>1268000</v>
+        <v>1261900</v>
       </c>
       <c r="G23" s="3">
-        <v>1263900</v>
+        <v>1257900</v>
       </c>
       <c r="H23" s="3">
-        <v>1204600</v>
+        <v>1198800</v>
       </c>
       <c r="I23" s="3">
-        <v>1265400</v>
+        <v>1259300</v>
       </c>
       <c r="J23" s="3">
-        <v>1032800</v>
+        <v>1027900</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>224000</v>
+        <v>222900</v>
       </c>
       <c r="E24" s="3">
-        <v>201700</v>
+        <v>200800</v>
       </c>
       <c r="F24" s="3">
-        <v>221000</v>
+        <v>220000</v>
       </c>
       <c r="G24" s="3">
-        <v>226700</v>
+        <v>225700</v>
       </c>
       <c r="H24" s="3">
-        <v>211900</v>
+        <v>210900</v>
       </c>
       <c r="I24" s="3">
-        <v>190000</v>
+        <v>189100</v>
       </c>
       <c r="J24" s="3">
-        <v>172000</v>
+        <v>171200</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1196400</v>
+        <v>1190700</v>
       </c>
       <c r="E26" s="3">
-        <v>1058500</v>
+        <v>1053500</v>
       </c>
       <c r="F26" s="3">
-        <v>1047000</v>
+        <v>1042000</v>
       </c>
       <c r="G26" s="3">
-        <v>1037200</v>
+        <v>1032300</v>
       </c>
       <c r="H26" s="3">
-        <v>992700</v>
+        <v>988000</v>
       </c>
       <c r="I26" s="3">
-        <v>1075300</v>
+        <v>1070200</v>
       </c>
       <c r="J26" s="3">
-        <v>860800</v>
+        <v>856700</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1052800</v>
+        <v>1047800</v>
       </c>
       <c r="E27" s="3">
-        <v>939600</v>
+        <v>935100</v>
       </c>
       <c r="F27" s="3">
-        <v>934700</v>
+        <v>930200</v>
       </c>
       <c r="G27" s="3">
-        <v>910000</v>
+        <v>905600</v>
       </c>
       <c r="H27" s="3">
-        <v>877300</v>
+        <v>873100</v>
       </c>
       <c r="I27" s="3">
-        <v>987100</v>
+        <v>982400</v>
       </c>
       <c r="J27" s="3">
-        <v>787100</v>
+        <v>783400</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-523800</v>
+        <v>-521300</v>
       </c>
       <c r="E32" s="3">
-        <v>-500800</v>
+        <v>-498400</v>
       </c>
       <c r="F32" s="3">
-        <v>-504800</v>
+        <v>-502400</v>
       </c>
       <c r="G32" s="3">
-        <v>-411500</v>
+        <v>-409500</v>
       </c>
       <c r="H32" s="3">
-        <v>-342000</v>
+        <v>-340400</v>
       </c>
       <c r="I32" s="3">
-        <v>-467800</v>
+        <v>-465600</v>
       </c>
       <c r="J32" s="3">
-        <v>-402700</v>
+        <v>-400800</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1052800</v>
+        <v>1047800</v>
       </c>
       <c r="E33" s="3">
-        <v>939600</v>
+        <v>935100</v>
       </c>
       <c r="F33" s="3">
-        <v>934700</v>
+        <v>930200</v>
       </c>
       <c r="G33" s="3">
-        <v>910000</v>
+        <v>905600</v>
       </c>
       <c r="H33" s="3">
-        <v>877300</v>
+        <v>873100</v>
       </c>
       <c r="I33" s="3">
-        <v>987100</v>
+        <v>982400</v>
       </c>
       <c r="J33" s="3">
-        <v>787100</v>
+        <v>783400</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1052800</v>
+        <v>1047800</v>
       </c>
       <c r="E35" s="3">
-        <v>939600</v>
+        <v>935100</v>
       </c>
       <c r="F35" s="3">
-        <v>934700</v>
+        <v>930200</v>
       </c>
       <c r="G35" s="3">
-        <v>910000</v>
+        <v>905600</v>
       </c>
       <c r="H35" s="3">
-        <v>877300</v>
+        <v>873100</v>
       </c>
       <c r="I35" s="3">
-        <v>987100</v>
+        <v>982400</v>
       </c>
       <c r="J35" s="3">
-        <v>787100</v>
+        <v>783400</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1377100</v>
+        <v>1370500</v>
       </c>
       <c r="E41" s="3">
-        <v>1033700</v>
+        <v>1028800</v>
       </c>
       <c r="F41" s="3">
-        <v>1526500</v>
+        <v>1519200</v>
       </c>
       <c r="G41" s="3">
-        <v>1613500</v>
+        <v>1605800</v>
       </c>
       <c r="H41" s="3">
-        <v>1132700</v>
+        <v>1127300</v>
       </c>
       <c r="I41" s="3">
-        <v>2218900</v>
+        <v>2208300</v>
       </c>
       <c r="J41" s="3">
-        <v>1439000</v>
+        <v>1432100</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>285800</v>
+        <v>284400</v>
       </c>
       <c r="E42" s="3">
-        <v>452600</v>
+        <v>450400</v>
       </c>
       <c r="F42" s="3">
-        <v>171400</v>
+        <v>170600</v>
       </c>
       <c r="G42" s="3">
-        <v>162400</v>
+        <v>161600</v>
       </c>
       <c r="H42" s="3">
-        <v>249700</v>
+        <v>248500</v>
       </c>
       <c r="I42" s="3">
-        <v>77900</v>
+        <v>77500</v>
       </c>
       <c r="J42" s="3">
-        <v>103300</v>
+        <v>102800</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>913600</v>
+        <v>909200</v>
       </c>
       <c r="E43" s="3">
-        <v>792200</v>
+        <v>788400</v>
       </c>
       <c r="F43" s="3">
-        <v>874800</v>
+        <v>870600</v>
       </c>
       <c r="G43" s="3">
-        <v>830500</v>
+        <v>826600</v>
       </c>
       <c r="H43" s="3">
-        <v>863000</v>
+        <v>858900</v>
       </c>
       <c r="I43" s="3">
-        <v>680200</v>
+        <v>677000</v>
       </c>
       <c r="J43" s="3">
-        <v>614500</v>
+        <v>611600</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>330000</v>
+        <v>328400</v>
       </c>
       <c r="E44" s="3">
-        <v>270100</v>
+        <v>268800</v>
       </c>
       <c r="F44" s="3">
-        <v>293300</v>
+        <v>291900</v>
       </c>
       <c r="G44" s="3">
-        <v>292200</v>
+        <v>290900</v>
       </c>
       <c r="H44" s="3">
-        <v>305000</v>
+        <v>303600</v>
       </c>
       <c r="I44" s="3">
-        <v>264500</v>
+        <v>263300</v>
       </c>
       <c r="J44" s="3">
-        <v>207700</v>
+        <v>206700</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>212400</v>
+        <v>211300</v>
       </c>
       <c r="E45" s="3">
-        <v>161200</v>
+        <v>160400</v>
       </c>
       <c r="F45" s="3">
-        <v>159000</v>
+        <v>158300</v>
       </c>
       <c r="G45" s="3">
-        <v>255400</v>
+        <v>254200</v>
       </c>
       <c r="H45" s="3">
-        <v>225700</v>
+        <v>224700</v>
       </c>
       <c r="I45" s="3">
-        <v>191600</v>
+        <v>190700</v>
       </c>
       <c r="J45" s="3">
-        <v>189700</v>
+        <v>188800</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3118800</v>
+        <v>3104000</v>
       </c>
       <c r="E46" s="3">
-        <v>2709900</v>
+        <v>2697000</v>
       </c>
       <c r="F46" s="3">
-        <v>3025000</v>
+        <v>3010600</v>
       </c>
       <c r="G46" s="3">
-        <v>3154100</v>
+        <v>3139100</v>
       </c>
       <c r="H46" s="3">
-        <v>2776200</v>
+        <v>2762900</v>
       </c>
       <c r="I46" s="3">
-        <v>2744000</v>
+        <v>2731000</v>
       </c>
       <c r="J46" s="3">
-        <v>2554300</v>
+        <v>2542100</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4971800</v>
+        <v>4948100</v>
       </c>
       <c r="E47" s="3">
-        <v>4503600</v>
+        <v>4482200</v>
       </c>
       <c r="F47" s="3">
-        <v>4301900</v>
+        <v>4281400</v>
       </c>
       <c r="G47" s="3">
-        <v>3772500</v>
+        <v>3754500</v>
       </c>
       <c r="H47" s="3">
-        <v>3752000</v>
+        <v>3734200</v>
       </c>
       <c r="I47" s="3">
-        <v>3695400</v>
+        <v>3677800</v>
       </c>
       <c r="J47" s="3">
-        <v>3230000</v>
+        <v>3214600</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7243700</v>
+        <v>7209200</v>
       </c>
       <c r="E48" s="3">
-        <v>6392100</v>
+        <v>6361700</v>
       </c>
       <c r="F48" s="3">
-        <v>6165600</v>
+        <v>6136200</v>
       </c>
       <c r="G48" s="3">
-        <v>6448400</v>
+        <v>6417700</v>
       </c>
       <c r="H48" s="3">
-        <v>5900400</v>
+        <v>5872300</v>
       </c>
       <c r="I48" s="3">
-        <v>3928700</v>
+        <v>3910000</v>
       </c>
       <c r="J48" s="3">
-        <v>4367900</v>
+        <v>4347100</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>753100</v>
+        <v>749500</v>
       </c>
       <c r="E49" s="3">
-        <v>713300</v>
+        <v>709900</v>
       </c>
       <c r="F49" s="3">
-        <v>744900</v>
+        <v>741300</v>
       </c>
       <c r="G49" s="3">
-        <v>749900</v>
+        <v>746300</v>
       </c>
       <c r="H49" s="3">
-        <v>672400</v>
+        <v>669200</v>
       </c>
       <c r="I49" s="3">
-        <v>492200</v>
+        <v>489900</v>
       </c>
       <c r="J49" s="3">
-        <v>439700</v>
+        <v>437600</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>688500</v>
+        <v>685200</v>
       </c>
       <c r="E52" s="3">
-        <v>624300</v>
+        <v>621300</v>
       </c>
       <c r="F52" s="3">
-        <v>554700</v>
+        <v>552100</v>
       </c>
       <c r="G52" s="3">
-        <v>519700</v>
+        <v>517200</v>
       </c>
       <c r="H52" s="3">
-        <v>517600</v>
+        <v>515100</v>
       </c>
       <c r="I52" s="3">
-        <v>472800</v>
+        <v>470500</v>
       </c>
       <c r="J52" s="3">
-        <v>299600</v>
+        <v>298100</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16775900</v>
+        <v>16696000</v>
       </c>
       <c r="E54" s="3">
-        <v>14943200</v>
+        <v>14871900</v>
       </c>
       <c r="F54" s="3">
-        <v>14792100</v>
+        <v>14721600</v>
       </c>
       <c r="G54" s="3">
-        <v>14644600</v>
+        <v>14574800</v>
       </c>
       <c r="H54" s="3">
-        <v>13618600</v>
+        <v>13553700</v>
       </c>
       <c r="I54" s="3">
-        <v>12664000</v>
+        <v>12603600</v>
       </c>
       <c r="J54" s="3">
-        <v>10891400</v>
+        <v>10839500</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1972200</v>
+        <v>1962800</v>
       </c>
       <c r="E57" s="3">
-        <v>1645200</v>
+        <v>1637400</v>
       </c>
       <c r="F57" s="3">
-        <v>1601200</v>
+        <v>1593500</v>
       </c>
       <c r="G57" s="3">
-        <v>1615400</v>
+        <v>1607700</v>
       </c>
       <c r="H57" s="3">
-        <v>1519200</v>
+        <v>1512000</v>
       </c>
       <c r="I57" s="3">
-        <v>1244400</v>
+        <v>1238500</v>
       </c>
       <c r="J57" s="3">
-        <v>1026800</v>
+        <v>1021900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2016900</v>
+        <v>2007300</v>
       </c>
       <c r="E58" s="3">
-        <v>761800</v>
+        <v>758200</v>
       </c>
       <c r="F58" s="3">
-        <v>1243200</v>
+        <v>1237200</v>
       </c>
       <c r="G58" s="3">
-        <v>902400</v>
+        <v>898100</v>
       </c>
       <c r="H58" s="3">
-        <v>796500</v>
+        <v>792700</v>
       </c>
       <c r="I58" s="3">
-        <v>830800</v>
+        <v>826900</v>
       </c>
       <c r="J58" s="3">
-        <v>540300</v>
+        <v>537700</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100300</v>
+        <v>99800</v>
       </c>
       <c r="E59" s="3">
-        <v>95100</v>
+        <v>94600</v>
       </c>
       <c r="F59" s="3">
-        <v>122800</v>
+        <v>122200</v>
       </c>
       <c r="G59" s="3">
-        <v>130500</v>
+        <v>129900</v>
       </c>
       <c r="H59" s="3">
-        <v>149800</v>
+        <v>149100</v>
       </c>
       <c r="I59" s="3">
-        <v>133200</v>
+        <v>132500</v>
       </c>
       <c r="J59" s="3">
-        <v>148500</v>
+        <v>147800</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4089400</v>
+        <v>4069900</v>
       </c>
       <c r="E60" s="3">
-        <v>2502100</v>
+        <v>2490200</v>
       </c>
       <c r="F60" s="3">
-        <v>2967100</v>
+        <v>2953000</v>
       </c>
       <c r="G60" s="3">
-        <v>2648300</v>
+        <v>2635600</v>
       </c>
       <c r="H60" s="3">
-        <v>2465500</v>
+        <v>2453800</v>
       </c>
       <c r="I60" s="3">
-        <v>2208400</v>
+        <v>2197800</v>
       </c>
       <c r="J60" s="3">
-        <v>1715600</v>
+        <v>1707500</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2708700</v>
+        <v>2695800</v>
       </c>
       <c r="E61" s="3">
-        <v>3493900</v>
+        <v>3477300</v>
       </c>
       <c r="F61" s="3">
-        <v>2990500</v>
+        <v>2976300</v>
       </c>
       <c r="G61" s="3">
-        <v>3134000</v>
+        <v>3119100</v>
       </c>
       <c r="H61" s="3">
-        <v>3126200</v>
+        <v>3111300</v>
       </c>
       <c r="I61" s="3">
-        <v>3234500</v>
+        <v>3219100</v>
       </c>
       <c r="J61" s="3">
-        <v>2768400</v>
+        <v>2755200</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>986400</v>
+        <v>981700</v>
       </c>
       <c r="E62" s="3">
-        <v>896200</v>
+        <v>892000</v>
       </c>
       <c r="F62" s="3">
-        <v>884000</v>
+        <v>879800</v>
       </c>
       <c r="G62" s="3">
-        <v>897700</v>
+        <v>893400</v>
       </c>
       <c r="H62" s="3">
-        <v>811500</v>
+        <v>807600</v>
       </c>
       <c r="I62" s="3">
-        <v>776300</v>
+        <v>772600</v>
       </c>
       <c r="J62" s="3">
-        <v>476800</v>
+        <v>474500</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8738400</v>
+        <v>8696800</v>
       </c>
       <c r="E66" s="3">
-        <v>7738500</v>
+        <v>7701700</v>
       </c>
       <c r="F66" s="3">
-        <v>7727100</v>
+        <v>7690300</v>
       </c>
       <c r="G66" s="3">
-        <v>7606900</v>
+        <v>7570600</v>
       </c>
       <c r="H66" s="3">
-        <v>7235500</v>
+        <v>7201100</v>
       </c>
       <c r="I66" s="3">
-        <v>6878100</v>
+        <v>6845400</v>
       </c>
       <c r="J66" s="3">
-        <v>5568600</v>
+        <v>5542100</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6805400</v>
+        <v>6772900</v>
       </c>
       <c r="E72" s="3">
-        <v>6329300</v>
+        <v>6299200</v>
       </c>
       <c r="F72" s="3">
-        <v>5934700</v>
+        <v>5906400</v>
       </c>
       <c r="G72" s="3">
-        <v>5544700</v>
+        <v>5518300</v>
       </c>
       <c r="H72" s="3">
-        <v>5122400</v>
+        <v>5097900</v>
       </c>
       <c r="I72" s="3">
-        <v>4622100</v>
+        <v>4600100</v>
       </c>
       <c r="J72" s="3">
-        <v>4174100</v>
+        <v>4154200</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8037500</v>
+        <v>7999200</v>
       </c>
       <c r="E76" s="3">
-        <v>7204600</v>
+        <v>7170300</v>
       </c>
       <c r="F76" s="3">
-        <v>7065000</v>
+        <v>7031300</v>
       </c>
       <c r="G76" s="3">
-        <v>7037700</v>
+        <v>7004200</v>
       </c>
       <c r="H76" s="3">
-        <v>6383100</v>
+        <v>6352600</v>
       </c>
       <c r="I76" s="3">
-        <v>5785800</v>
+        <v>5758300</v>
       </c>
       <c r="J76" s="3">
-        <v>5322800</v>
+        <v>5297400</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1052800</v>
+        <v>1047800</v>
       </c>
       <c r="E81" s="3">
-        <v>939600</v>
+        <v>935100</v>
       </c>
       <c r="F81" s="3">
-        <v>934700</v>
+        <v>930200</v>
       </c>
       <c r="G81" s="3">
-        <v>910000</v>
+        <v>905600</v>
       </c>
       <c r="H81" s="3">
-        <v>877300</v>
+        <v>873100</v>
       </c>
       <c r="I81" s="3">
-        <v>987100</v>
+        <v>982400</v>
       </c>
       <c r="J81" s="3">
-        <v>787100</v>
+        <v>783400</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>304000</v>
+        <v>302500</v>
       </c>
       <c r="E83" s="3">
-        <v>284600</v>
+        <v>283200</v>
       </c>
       <c r="F83" s="3">
-        <v>265600</v>
+        <v>264400</v>
       </c>
       <c r="G83" s="3">
-        <v>249800</v>
+        <v>248600</v>
       </c>
       <c r="H83" s="3">
-        <v>211100</v>
+        <v>210100</v>
       </c>
       <c r="I83" s="3">
-        <v>187500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>167800</v>
+        <v>186600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1091100</v>
+        <v>1085900</v>
       </c>
       <c r="E89" s="3">
-        <v>1084100</v>
+        <v>1078900</v>
       </c>
       <c r="F89" s="3">
-        <v>1059400</v>
+        <v>1054300</v>
       </c>
       <c r="G89" s="3">
-        <v>1047000</v>
+        <v>1042000</v>
       </c>
       <c r="H89" s="3">
-        <v>895000</v>
+        <v>890700</v>
       </c>
       <c r="I89" s="3">
-        <v>853200</v>
+        <v>849100</v>
       </c>
       <c r="J89" s="3">
-        <v>634500</v>
+        <v>631500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-769100</v>
+        <v>-764900</v>
       </c>
       <c r="E91" s="3">
-        <v>-775300</v>
+        <v>-771600</v>
       </c>
       <c r="F91" s="3">
-        <v>-771800</v>
+        <v>-768100</v>
       </c>
       <c r="G91" s="3">
-        <v>-800000</v>
+        <v>-796200</v>
       </c>
       <c r="H91" s="3">
-        <v>-651000</v>
+        <v>-647900</v>
       </c>
       <c r="I91" s="3">
-        <v>-744500</v>
+        <v>-740900</v>
       </c>
       <c r="J91" s="3">
-        <v>-596700</v>
+        <v>-583300</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-213800</v>
+        <v>-212800</v>
       </c>
       <c r="E94" s="3">
-        <v>-828000</v>
+        <v>-824000</v>
       </c>
       <c r="F94" s="3">
-        <v>-606600</v>
+        <v>-603700</v>
       </c>
       <c r="G94" s="3">
-        <v>-362700</v>
+        <v>-360900</v>
       </c>
       <c r="H94" s="3">
-        <v>-733900</v>
+        <v>-730400</v>
       </c>
       <c r="I94" s="3">
-        <v>-806700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-480200</v>
+        <v>-802900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-589200</v>
+        <v>-586400</v>
       </c>
       <c r="E96" s="3">
-        <v>-535700</v>
+        <v>-533100</v>
       </c>
       <c r="F96" s="3">
-        <v>-487100</v>
+        <v>-484800</v>
       </c>
       <c r="G96" s="3">
-        <v>-443000</v>
+        <v>-440800</v>
       </c>
       <c r="H96" s="3">
-        <v>-402700</v>
+        <v>-400800</v>
       </c>
       <c r="I96" s="3">
-        <v>-543100</v>
+        <v>-540500</v>
       </c>
       <c r="J96" s="3">
-        <v>-332800</v>
+        <v>-331200</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-555500</v>
+        <v>-552800</v>
       </c>
       <c r="E100" s="3">
-        <v>-726100</v>
+        <v>-722700</v>
       </c>
       <c r="F100" s="3">
-        <v>-509000</v>
+        <v>-506600</v>
       </c>
       <c r="G100" s="3">
-        <v>-184900</v>
+        <v>-184000</v>
       </c>
       <c r="H100" s="3">
-        <v>-598500</v>
+        <v>-595600</v>
       </c>
       <c r="I100" s="3">
-        <v>74200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>27600</v>
+        <v>73800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21500</v>
+        <v>21400</v>
       </c>
       <c r="E101" s="3">
-        <v>-22700</v>
+        <v>-22600</v>
       </c>
       <c r="F101" s="3">
-        <v>-30700</v>
+        <v>-30600</v>
       </c>
       <c r="G101" s="3">
-        <v>-18700</v>
+        <v>-18600</v>
       </c>
       <c r="H101" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
-        <v>16000</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>343400</v>
+        <v>341700</v>
       </c>
       <c r="E102" s="3">
-        <v>-492800</v>
+        <v>-490400</v>
       </c>
       <c r="F102" s="3">
-        <v>-87000</v>
+        <v>-86600</v>
       </c>
       <c r="G102" s="3">
-        <v>480800</v>
+        <v>478500</v>
       </c>
       <c r="H102" s="3">
-        <v>-427200</v>
+        <v>-425200</v>
       </c>
       <c r="I102" s="3">
-        <v>120900</v>
+        <v>120300</v>
       </c>
       <c r="J102" s="3">
-        <v>197900</v>
+        <v>196900</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92BBD6F-C3A8-412E-9F6B-8B24C9836814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="HOKCY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4137200</v>
+        <v>5032200</v>
       </c>
       <c r="E8" s="3">
-        <v>3637900</v>
+        <v>4182600</v>
       </c>
       <c r="F8" s="3">
-        <v>3769600</v>
+        <v>3677900</v>
       </c>
       <c r="G8" s="3">
-        <v>4027400</v>
+        <v>3811100</v>
       </c>
       <c r="H8" s="3">
-        <v>3598200</v>
+        <v>4071700</v>
       </c>
       <c r="I8" s="3">
-        <v>3174900</v>
+        <v>3637800</v>
       </c>
       <c r="J8" s="3">
+        <v>3209800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2857000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1999000</v>
+        <v>2652800</v>
       </c>
       <c r="E9" s="3">
-        <v>1619100</v>
+        <v>2021000</v>
       </c>
       <c r="F9" s="3">
-        <v>1795900</v>
+        <v>1636900</v>
       </c>
       <c r="G9" s="3">
-        <v>2076300</v>
+        <v>1815700</v>
       </c>
       <c r="H9" s="3">
-        <v>1875400</v>
+        <v>2099100</v>
       </c>
       <c r="I9" s="3">
-        <v>1698400</v>
+        <v>1896000</v>
       </c>
       <c r="J9" s="3">
+        <v>1717100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1420700</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2138200</v>
+        <v>2379400</v>
       </c>
       <c r="E10" s="3">
-        <v>2018800</v>
+        <v>2161700</v>
       </c>
       <c r="F10" s="3">
-        <v>1973700</v>
+        <v>2041000</v>
       </c>
       <c r="G10" s="3">
-        <v>1951100</v>
+        <v>1995400</v>
       </c>
       <c r="H10" s="3">
-        <v>1722800</v>
+        <v>1972600</v>
       </c>
       <c r="I10" s="3">
-        <v>1476500</v>
+        <v>1741800</v>
       </c>
       <c r="J10" s="3">
+        <v>1492700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1436300</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>6000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
-        <v>6600</v>
-      </c>
       <c r="G12" s="3">
-        <v>5200</v>
+        <v>6700</v>
       </c>
       <c r="H12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
-        <v>15300</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-35300</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="H14" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-84600</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>4500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>302500</v>
+        <v>326800</v>
       </c>
       <c r="E15" s="3">
-        <v>283200</v>
+        <v>305900</v>
       </c>
       <c r="F15" s="3">
-        <v>264400</v>
+        <v>286300</v>
       </c>
       <c r="G15" s="3">
-        <v>248600</v>
+        <v>267300</v>
       </c>
       <c r="H15" s="3">
-        <v>210100</v>
+        <v>251300</v>
       </c>
       <c r="I15" s="3">
-        <v>186600</v>
+        <v>212400</v>
       </c>
       <c r="J15" s="3">
+        <v>188700</v>
+      </c>
+      <c r="K15" s="3">
         <v>167000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3084800</v>
+        <v>3950000</v>
       </c>
       <c r="E17" s="3">
-        <v>2728300</v>
+        <v>3118700</v>
       </c>
       <c r="F17" s="3">
-        <v>2866300</v>
+        <v>2758300</v>
       </c>
       <c r="G17" s="3">
-        <v>3049900</v>
+        <v>2897800</v>
       </c>
       <c r="H17" s="3">
-        <v>2621900</v>
+        <v>3083500</v>
       </c>
       <c r="I17" s="3">
-        <v>2271100</v>
+        <v>2650700</v>
       </c>
       <c r="J17" s="3">
+        <v>2296100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2134100</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1052400</v>
+        <v>1082200</v>
       </c>
       <c r="E18" s="3">
-        <v>909600</v>
+        <v>1064000</v>
       </c>
       <c r="F18" s="3">
-        <v>903300</v>
+        <v>919600</v>
       </c>
       <c r="G18" s="3">
-        <v>977500</v>
+        <v>913200</v>
       </c>
       <c r="H18" s="3">
-        <v>976400</v>
+        <v>988200</v>
       </c>
       <c r="I18" s="3">
-        <v>903800</v>
+        <v>987100</v>
       </c>
       <c r="J18" s="3">
+        <v>913700</v>
+      </c>
+      <c r="K18" s="3">
         <v>722900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>521300</v>
+        <v>658500</v>
       </c>
       <c r="E20" s="3">
-        <v>498400</v>
+        <v>527000</v>
       </c>
       <c r="F20" s="3">
-        <v>502400</v>
+        <v>503900</v>
       </c>
       <c r="G20" s="3">
-        <v>409500</v>
+        <v>507900</v>
       </c>
       <c r="H20" s="3">
-        <v>340400</v>
+        <v>414000</v>
       </c>
       <c r="I20" s="3">
-        <v>465600</v>
+        <v>344100</v>
       </c>
       <c r="J20" s="3">
+        <v>470700</v>
+      </c>
+      <c r="K20" s="3">
         <v>400800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1876300</v>
+        <v>2067600</v>
       </c>
       <c r="E21" s="3">
-        <v>1691300</v>
+        <v>1897000</v>
       </c>
       <c r="F21" s="3">
-        <v>1670100</v>
+        <v>1709900</v>
       </c>
       <c r="G21" s="3">
-        <v>1635600</v>
+        <v>1688500</v>
       </c>
       <c r="H21" s="3">
-        <v>1526900</v>
+        <v>1653600</v>
       </c>
       <c r="I21" s="3">
-        <v>1556000</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1543700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1573200</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>160100</v>
+        <v>151500</v>
       </c>
       <c r="E22" s="3">
-        <v>153800</v>
+        <v>161900</v>
       </c>
       <c r="F22" s="3">
-        <v>143800</v>
+        <v>155500</v>
       </c>
       <c r="G22" s="3">
-        <v>129000</v>
+        <v>145400</v>
       </c>
       <c r="H22" s="3">
-        <v>117900</v>
+        <v>130500</v>
       </c>
       <c r="I22" s="3">
-        <v>110000</v>
+        <v>119200</v>
       </c>
       <c r="J22" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K22" s="3">
         <v>95800</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1413600</v>
+        <v>1589200</v>
       </c>
       <c r="E23" s="3">
-        <v>1254200</v>
+        <v>1429100</v>
       </c>
       <c r="F23" s="3">
-        <v>1261900</v>
+        <v>1268000</v>
       </c>
       <c r="G23" s="3">
-        <v>1257900</v>
+        <v>1275800</v>
       </c>
       <c r="H23" s="3">
-        <v>1198800</v>
+        <v>1271700</v>
       </c>
       <c r="I23" s="3">
-        <v>1259300</v>
+        <v>1212000</v>
       </c>
       <c r="J23" s="3">
+        <v>1273200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1027900</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>222900</v>
+        <v>245700</v>
       </c>
       <c r="E24" s="3">
-        <v>200800</v>
+        <v>225400</v>
       </c>
       <c r="F24" s="3">
-        <v>220000</v>
+        <v>203000</v>
       </c>
       <c r="G24" s="3">
-        <v>225700</v>
+        <v>222400</v>
       </c>
       <c r="H24" s="3">
-        <v>210900</v>
+        <v>228100</v>
       </c>
       <c r="I24" s="3">
-        <v>189100</v>
+        <v>213200</v>
       </c>
       <c r="J24" s="3">
+        <v>191200</v>
+      </c>
+      <c r="K24" s="3">
         <v>171200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1190700</v>
+        <v>1343500</v>
       </c>
       <c r="E26" s="3">
-        <v>1053500</v>
+        <v>1203800</v>
       </c>
       <c r="F26" s="3">
-        <v>1042000</v>
+        <v>1065100</v>
       </c>
       <c r="G26" s="3">
-        <v>1032300</v>
+        <v>1053400</v>
       </c>
       <c r="H26" s="3">
-        <v>988000</v>
+        <v>1043600</v>
       </c>
       <c r="I26" s="3">
-        <v>1070200</v>
+        <v>998800</v>
       </c>
       <c r="J26" s="3">
+        <v>1082000</v>
+      </c>
+      <c r="K26" s="3">
         <v>856700</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1047800</v>
+        <v>1199400</v>
       </c>
       <c r="E27" s="3">
-        <v>935100</v>
+        <v>1059300</v>
       </c>
       <c r="F27" s="3">
-        <v>930200</v>
+        <v>945400</v>
       </c>
       <c r="G27" s="3">
-        <v>905600</v>
+        <v>940400</v>
       </c>
       <c r="H27" s="3">
-        <v>873100</v>
+        <v>915600</v>
       </c>
       <c r="I27" s="3">
-        <v>982400</v>
+        <v>882700</v>
       </c>
       <c r="J27" s="3">
+        <v>993200</v>
+      </c>
+      <c r="K27" s="3">
         <v>783400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-521300</v>
+        <v>-658500</v>
       </c>
       <c r="E32" s="3">
-        <v>-498400</v>
+        <v>-527000</v>
       </c>
       <c r="F32" s="3">
-        <v>-502400</v>
+        <v>-503900</v>
       </c>
       <c r="G32" s="3">
-        <v>-409500</v>
+        <v>-507900</v>
       </c>
       <c r="H32" s="3">
-        <v>-340400</v>
+        <v>-414000</v>
       </c>
       <c r="I32" s="3">
-        <v>-465600</v>
+        <v>-344100</v>
       </c>
       <c r="J32" s="3">
+        <v>-470700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1047800</v>
+        <v>1199400</v>
       </c>
       <c r="E33" s="3">
-        <v>935100</v>
+        <v>1059300</v>
       </c>
       <c r="F33" s="3">
-        <v>930200</v>
+        <v>945400</v>
       </c>
       <c r="G33" s="3">
-        <v>905600</v>
+        <v>940400</v>
       </c>
       <c r="H33" s="3">
-        <v>873100</v>
+        <v>915600</v>
       </c>
       <c r="I33" s="3">
-        <v>982400</v>
+        <v>882700</v>
       </c>
       <c r="J33" s="3">
+        <v>993200</v>
+      </c>
+      <c r="K33" s="3">
         <v>783400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1047800</v>
+        <v>1199400</v>
       </c>
       <c r="E35" s="3">
-        <v>935100</v>
+        <v>1059300</v>
       </c>
       <c r="F35" s="3">
-        <v>930200</v>
+        <v>945400</v>
       </c>
       <c r="G35" s="3">
-        <v>905600</v>
+        <v>940400</v>
       </c>
       <c r="H35" s="3">
-        <v>873100</v>
+        <v>915600</v>
       </c>
       <c r="I35" s="3">
-        <v>982400</v>
+        <v>882700</v>
       </c>
       <c r="J35" s="3">
+        <v>993200</v>
+      </c>
+      <c r="K35" s="3">
         <v>783400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1370500</v>
+        <v>1094800</v>
       </c>
       <c r="E41" s="3">
-        <v>1028800</v>
+        <v>1385600</v>
       </c>
       <c r="F41" s="3">
-        <v>1519200</v>
+        <v>1040100</v>
       </c>
       <c r="G41" s="3">
-        <v>1605800</v>
+        <v>1535900</v>
       </c>
       <c r="H41" s="3">
-        <v>1127300</v>
+        <v>1623500</v>
       </c>
       <c r="I41" s="3">
-        <v>2208300</v>
+        <v>1139700</v>
       </c>
       <c r="J41" s="3">
+        <v>2232600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1432100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>284400</v>
+        <v>87600</v>
       </c>
       <c r="E42" s="3">
-        <v>450400</v>
+        <v>287500</v>
       </c>
       <c r="F42" s="3">
-        <v>170600</v>
+        <v>455400</v>
       </c>
       <c r="G42" s="3">
-        <v>161600</v>
+        <v>172400</v>
       </c>
       <c r="H42" s="3">
-        <v>248500</v>
+        <v>163400</v>
       </c>
       <c r="I42" s="3">
-        <v>77500</v>
+        <v>251200</v>
       </c>
       <c r="J42" s="3">
+        <v>78400</v>
+      </c>
+      <c r="K42" s="3">
         <v>102800</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>909200</v>
+        <v>949000</v>
       </c>
       <c r="E43" s="3">
-        <v>788400</v>
+        <v>919200</v>
       </c>
       <c r="F43" s="3">
-        <v>870600</v>
+        <v>797100</v>
       </c>
       <c r="G43" s="3">
-        <v>826600</v>
+        <v>880200</v>
       </c>
       <c r="H43" s="3">
-        <v>858900</v>
+        <v>835600</v>
       </c>
       <c r="I43" s="3">
-        <v>677000</v>
+        <v>868400</v>
       </c>
       <c r="J43" s="3">
+        <v>684400</v>
+      </c>
+      <c r="K43" s="3">
         <v>611600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>328400</v>
+        <v>319500</v>
       </c>
       <c r="E44" s="3">
-        <v>268800</v>
+        <v>332100</v>
       </c>
       <c r="F44" s="3">
-        <v>291900</v>
+        <v>271800</v>
       </c>
       <c r="G44" s="3">
-        <v>290900</v>
+        <v>295100</v>
       </c>
       <c r="H44" s="3">
-        <v>303600</v>
+        <v>294100</v>
       </c>
       <c r="I44" s="3">
-        <v>263300</v>
+        <v>306900</v>
       </c>
       <c r="J44" s="3">
+        <v>266100</v>
+      </c>
+      <c r="K44" s="3">
         <v>206700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>211300</v>
+        <v>203700</v>
       </c>
       <c r="E45" s="3">
-        <v>160400</v>
+        <v>213700</v>
       </c>
       <c r="F45" s="3">
-        <v>158300</v>
+        <v>162200</v>
       </c>
       <c r="G45" s="3">
-        <v>254200</v>
+        <v>160000</v>
       </c>
       <c r="H45" s="3">
-        <v>224700</v>
+        <v>257000</v>
       </c>
       <c r="I45" s="3">
-        <v>190700</v>
+        <v>227100</v>
       </c>
       <c r="J45" s="3">
+        <v>192800</v>
+      </c>
+      <c r="K45" s="3">
         <v>188800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3104000</v>
+        <v>2654600</v>
       </c>
       <c r="E46" s="3">
-        <v>2697000</v>
+        <v>3138100</v>
       </c>
       <c r="F46" s="3">
-        <v>3010600</v>
+        <v>2726600</v>
       </c>
       <c r="G46" s="3">
-        <v>3139100</v>
+        <v>3043700</v>
       </c>
       <c r="H46" s="3">
-        <v>2762900</v>
+        <v>3173600</v>
       </c>
       <c r="I46" s="3">
-        <v>2731000</v>
+        <v>2793300</v>
       </c>
       <c r="J46" s="3">
+        <v>2761000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2542100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4948100</v>
+        <v>5403200</v>
       </c>
       <c r="E47" s="3">
-        <v>4482200</v>
+        <v>5002500</v>
       </c>
       <c r="F47" s="3">
-        <v>4281400</v>
+        <v>4531400</v>
       </c>
       <c r="G47" s="3">
-        <v>3754500</v>
+        <v>4328500</v>
       </c>
       <c r="H47" s="3">
-        <v>3734200</v>
+        <v>3795800</v>
       </c>
       <c r="I47" s="3">
-        <v>3677800</v>
+        <v>3775200</v>
       </c>
       <c r="J47" s="3">
+        <v>3718200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3214600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7209200</v>
+        <v>7567300</v>
       </c>
       <c r="E48" s="3">
-        <v>6361700</v>
+        <v>7288400</v>
       </c>
       <c r="F48" s="3">
-        <v>6136200</v>
+        <v>6431600</v>
       </c>
       <c r="G48" s="3">
-        <v>6417700</v>
+        <v>6203600</v>
       </c>
       <c r="H48" s="3">
-        <v>5872300</v>
+        <v>6488200</v>
       </c>
       <c r="I48" s="3">
-        <v>3910000</v>
+        <v>5936800</v>
       </c>
       <c r="J48" s="3">
+        <v>3952900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4347100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>731800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>757700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>717700</v>
+      </c>
+      <c r="G49" s="3">
         <v>749500</v>
       </c>
-      <c r="E49" s="3">
-        <v>709900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>741300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>746300</v>
-      </c>
       <c r="H49" s="3">
-        <v>669200</v>
+        <v>754500</v>
       </c>
       <c r="I49" s="3">
-        <v>489900</v>
+        <v>676600</v>
       </c>
       <c r="J49" s="3">
+        <v>495200</v>
+      </c>
+      <c r="K49" s="3">
         <v>437600</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>685200</v>
+        <v>732600</v>
       </c>
       <c r="E52" s="3">
-        <v>621300</v>
+        <v>692700</v>
       </c>
       <c r="F52" s="3">
-        <v>552100</v>
+        <v>628100</v>
       </c>
       <c r="G52" s="3">
-        <v>517200</v>
+        <v>558100</v>
       </c>
       <c r="H52" s="3">
-        <v>515100</v>
+        <v>522900</v>
       </c>
       <c r="I52" s="3">
-        <v>470500</v>
+        <v>520800</v>
       </c>
       <c r="J52" s="3">
+        <v>475700</v>
+      </c>
+      <c r="K52" s="3">
         <v>298100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16696000</v>
+        <v>17089500</v>
       </c>
       <c r="E54" s="3">
-        <v>14871900</v>
+        <v>16879500</v>
       </c>
       <c r="F54" s="3">
-        <v>14721600</v>
+        <v>15035400</v>
       </c>
       <c r="G54" s="3">
-        <v>14574800</v>
+        <v>14883400</v>
       </c>
       <c r="H54" s="3">
-        <v>13553700</v>
+        <v>14735000</v>
       </c>
       <c r="I54" s="3">
-        <v>12603600</v>
+        <v>13702600</v>
       </c>
       <c r="J54" s="3">
+        <v>12742100</v>
+      </c>
+      <c r="K54" s="3">
         <v>10839500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1962800</v>
+        <v>531600</v>
       </c>
       <c r="E57" s="3">
-        <v>1637400</v>
+        <v>530000</v>
       </c>
       <c r="F57" s="3">
-        <v>1593500</v>
+        <v>433500</v>
       </c>
       <c r="G57" s="3">
-        <v>1607700</v>
+        <v>405100</v>
       </c>
       <c r="H57" s="3">
-        <v>1512000</v>
+        <v>495300</v>
       </c>
       <c r="I57" s="3">
-        <v>1238500</v>
+        <v>414600</v>
       </c>
       <c r="J57" s="3">
+        <v>352600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1021900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2007300</v>
+        <v>1341000</v>
       </c>
       <c r="E58" s="3">
-        <v>758200</v>
+        <v>2029300</v>
       </c>
       <c r="F58" s="3">
-        <v>1237200</v>
+        <v>766500</v>
       </c>
       <c r="G58" s="3">
-        <v>898100</v>
+        <v>1250800</v>
       </c>
       <c r="H58" s="3">
-        <v>792700</v>
+        <v>907900</v>
       </c>
       <c r="I58" s="3">
-        <v>826900</v>
+        <v>801400</v>
       </c>
       <c r="J58" s="3">
+        <v>836000</v>
+      </c>
+      <c r="K58" s="3">
         <v>537700</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99800</v>
+        <v>1495400</v>
       </c>
       <c r="E59" s="3">
-        <v>94600</v>
+        <v>1555300</v>
       </c>
       <c r="F59" s="3">
-        <v>122200</v>
+        <v>1317500</v>
       </c>
       <c r="G59" s="3">
-        <v>129900</v>
+        <v>1329500</v>
       </c>
       <c r="H59" s="3">
-        <v>149100</v>
+        <v>1261400</v>
       </c>
       <c r="I59" s="3">
-        <v>132500</v>
+        <v>1264800</v>
       </c>
       <c r="J59" s="3">
+        <v>1033500</v>
+      </c>
+      <c r="K59" s="3">
         <v>147800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4069900</v>
+        <v>3368000</v>
       </c>
       <c r="E60" s="3">
-        <v>2490200</v>
+        <v>4114600</v>
       </c>
       <c r="F60" s="3">
-        <v>2953000</v>
+        <v>2517500</v>
       </c>
       <c r="G60" s="3">
-        <v>2635600</v>
+        <v>2985400</v>
       </c>
       <c r="H60" s="3">
-        <v>2453800</v>
+        <v>2664600</v>
       </c>
       <c r="I60" s="3">
-        <v>2197800</v>
+        <v>2480700</v>
       </c>
       <c r="J60" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1707500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2695800</v>
+        <v>3555800</v>
       </c>
       <c r="E61" s="3">
-        <v>3477300</v>
+        <v>2725400</v>
       </c>
       <c r="F61" s="3">
-        <v>2976300</v>
+        <v>3515500</v>
       </c>
       <c r="G61" s="3">
-        <v>3119100</v>
+        <v>3009000</v>
       </c>
       <c r="H61" s="3">
-        <v>3111300</v>
+        <v>3153300</v>
       </c>
       <c r="I61" s="3">
-        <v>3219100</v>
+        <v>3145500</v>
       </c>
       <c r="J61" s="3">
+        <v>3254500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2755200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>981700</v>
+        <v>1125600</v>
       </c>
       <c r="E62" s="3">
-        <v>892000</v>
+        <v>992500</v>
       </c>
       <c r="F62" s="3">
-        <v>879800</v>
+        <v>901800</v>
       </c>
       <c r="G62" s="3">
-        <v>893400</v>
+        <v>889500</v>
       </c>
       <c r="H62" s="3">
-        <v>807600</v>
+        <v>903200</v>
       </c>
       <c r="I62" s="3">
-        <v>772600</v>
+        <v>816500</v>
       </c>
       <c r="J62" s="3">
+        <v>781100</v>
+      </c>
+      <c r="K62" s="3">
         <v>474500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8696800</v>
+        <v>9053000</v>
       </c>
       <c r="E66" s="3">
-        <v>7701700</v>
+        <v>8792400</v>
       </c>
       <c r="F66" s="3">
-        <v>7690300</v>
+        <v>7786300</v>
       </c>
       <c r="G66" s="3">
-        <v>7570600</v>
+        <v>7774800</v>
       </c>
       <c r="H66" s="3">
-        <v>7201100</v>
+        <v>7653800</v>
       </c>
       <c r="I66" s="3">
-        <v>6845400</v>
+        <v>7280200</v>
       </c>
       <c r="J66" s="3">
+        <v>6920600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5542100</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6772900</v>
+        <v>7396400</v>
       </c>
       <c r="E72" s="3">
-        <v>6299200</v>
+        <v>6847400</v>
       </c>
       <c r="F72" s="3">
-        <v>5906400</v>
+        <v>6368400</v>
       </c>
       <c r="G72" s="3">
-        <v>5518300</v>
+        <v>5971300</v>
       </c>
       <c r="H72" s="3">
-        <v>5097900</v>
+        <v>5579000</v>
       </c>
       <c r="I72" s="3">
-        <v>4600100</v>
+        <v>5154000</v>
       </c>
       <c r="J72" s="3">
+        <v>4650700</v>
+      </c>
+      <c r="K72" s="3">
         <v>4154200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7999200</v>
+        <v>8036600</v>
       </c>
       <c r="E76" s="3">
-        <v>7170300</v>
+        <v>8087100</v>
       </c>
       <c r="F76" s="3">
-        <v>7031300</v>
+        <v>7249100</v>
       </c>
       <c r="G76" s="3">
-        <v>7004200</v>
+        <v>7108600</v>
       </c>
       <c r="H76" s="3">
-        <v>6352600</v>
+        <v>7081100</v>
       </c>
       <c r="I76" s="3">
-        <v>5758300</v>
+        <v>6422400</v>
       </c>
       <c r="J76" s="3">
+        <v>5821500</v>
+      </c>
+      <c r="K76" s="3">
         <v>5297400</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1047800</v>
+        <v>1199400</v>
       </c>
       <c r="E81" s="3">
-        <v>935100</v>
+        <v>1059300</v>
       </c>
       <c r="F81" s="3">
-        <v>930200</v>
+        <v>945400</v>
       </c>
       <c r="G81" s="3">
-        <v>905600</v>
+        <v>940400</v>
       </c>
       <c r="H81" s="3">
-        <v>873100</v>
+        <v>915600</v>
       </c>
       <c r="I81" s="3">
-        <v>982400</v>
+        <v>882700</v>
       </c>
       <c r="J81" s="3">
+        <v>993200</v>
+      </c>
+      <c r="K81" s="3">
         <v>783400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>302500</v>
+        <v>326800</v>
       </c>
       <c r="E83" s="3">
-        <v>283200</v>
+        <v>305900</v>
       </c>
       <c r="F83" s="3">
-        <v>264400</v>
+        <v>286300</v>
       </c>
       <c r="G83" s="3">
-        <v>248600</v>
+        <v>267300</v>
       </c>
       <c r="H83" s="3">
-        <v>210100</v>
+        <v>251300</v>
       </c>
       <c r="I83" s="3">
-        <v>186600</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>212400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>188700</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1085900</v>
+        <v>1215600</v>
       </c>
       <c r="E89" s="3">
-        <v>1078900</v>
+        <v>1097900</v>
       </c>
       <c r="F89" s="3">
-        <v>1054300</v>
+        <v>1090700</v>
       </c>
       <c r="G89" s="3">
-        <v>1042000</v>
+        <v>1065900</v>
       </c>
       <c r="H89" s="3">
-        <v>890700</v>
+        <v>1053500</v>
       </c>
       <c r="I89" s="3">
-        <v>849100</v>
+        <v>900500</v>
       </c>
       <c r="J89" s="3">
+        <v>858500</v>
+      </c>
+      <c r="K89" s="3">
         <v>631500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-764900</v>
+        <v>-845800</v>
       </c>
       <c r="E91" s="3">
-        <v>-771600</v>
+        <v>-773300</v>
       </c>
       <c r="F91" s="3">
-        <v>-768100</v>
+        <v>-780000</v>
       </c>
       <c r="G91" s="3">
-        <v>-796200</v>
+        <v>-776500</v>
       </c>
       <c r="H91" s="3">
-        <v>-647900</v>
+        <v>-805000</v>
       </c>
       <c r="I91" s="3">
-        <v>-740900</v>
+        <v>-655000</v>
       </c>
       <c r="J91" s="3">
+        <v>-749100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-583300</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-212800</v>
+        <v>-486400</v>
       </c>
       <c r="E94" s="3">
-        <v>-824000</v>
+        <v>-215200</v>
       </c>
       <c r="F94" s="3">
-        <v>-603700</v>
+        <v>-833100</v>
       </c>
       <c r="G94" s="3">
-        <v>-360900</v>
+        <v>-610300</v>
       </c>
       <c r="H94" s="3">
-        <v>-730400</v>
+        <v>-364900</v>
       </c>
       <c r="I94" s="3">
-        <v>-802900</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-738400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-811700</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-586400</v>
+        <v>-652100</v>
       </c>
       <c r="E96" s="3">
-        <v>-533100</v>
+        <v>-592800</v>
       </c>
       <c r="F96" s="3">
-        <v>-484800</v>
+        <v>-539000</v>
       </c>
       <c r="G96" s="3">
-        <v>-440800</v>
+        <v>-490100</v>
       </c>
       <c r="H96" s="3">
-        <v>-400800</v>
+        <v>-445700</v>
       </c>
       <c r="I96" s="3">
-        <v>-540500</v>
+        <v>-405200</v>
       </c>
       <c r="J96" s="3">
+        <v>-546400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-331200</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-552800</v>
+        <v>-1003100</v>
       </c>
       <c r="E100" s="3">
-        <v>-722700</v>
+        <v>-558900</v>
       </c>
       <c r="F100" s="3">
-        <v>-506600</v>
+        <v>-730600</v>
       </c>
       <c r="G100" s="3">
-        <v>-184000</v>
+        <v>-512200</v>
       </c>
       <c r="H100" s="3">
-        <v>-595600</v>
+        <v>-186000</v>
       </c>
       <c r="I100" s="3">
-        <v>73800</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-602200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>74600</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21400</v>
+        <v>-16900</v>
       </c>
       <c r="E101" s="3">
-        <v>-22600</v>
+        <v>21700</v>
       </c>
       <c r="F101" s="3">
-        <v>-30600</v>
+        <v>-22900</v>
       </c>
       <c r="G101" s="3">
-        <v>-18600</v>
+        <v>-30900</v>
       </c>
       <c r="H101" s="3">
-        <v>10100</v>
+        <v>-18800</v>
       </c>
       <c r="I101" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>341700</v>
+        <v>-290800</v>
       </c>
       <c r="E102" s="3">
-        <v>-490400</v>
+        <v>345500</v>
       </c>
       <c r="F102" s="3">
-        <v>-86600</v>
+        <v>-495800</v>
       </c>
       <c r="G102" s="3">
-        <v>478500</v>
+        <v>-87500</v>
       </c>
       <c r="H102" s="3">
-        <v>-425200</v>
+        <v>483800</v>
       </c>
       <c r="I102" s="3">
-        <v>120300</v>
+        <v>-429800</v>
       </c>
       <c r="J102" s="3">
+        <v>121600</v>
+      </c>
+      <c r="K102" s="3">
         <v>196900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
